--- a/data/progress.xlsx
+++ b/data/progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UTILITY RELOCATION\extra\web app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\2. NKB\Utility\web app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BC8DE1-2D92-4537-AAA5-AD11E02BEE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162BF286-7A9A-46F8-8CBC-B1167004444C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="4" r:id="rId1"/>
@@ -453,18 +453,18 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -492,7 +492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -506,7 +506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -548,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -562,7 +562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -576,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -584,13 +584,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>3.3000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -604,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -618,7 +618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>

--- a/data/progress.xlsx
+++ b/data/progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\2. NKB\Utility\web app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162BF286-7A9A-46F8-8CBC-B1167004444C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A32DE1E-9F70-4C5F-9DED-DEA5045B3898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>0.06</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
